--- a/hydrologicControls/Geomorphology_Survey_List_20190310.xlsx
+++ b/hydrologicControls/Geomorphology_Survey_List_20190310.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="48">
   <si>
     <t>Site</t>
   </si>
@@ -162,13 +162,19 @@
   </si>
   <si>
     <t>OK - both temp and perm gauges (same DSC XS)</t>
+  </si>
+  <si>
+    <t>We don't have a shot on the staff gauge for this site yet…we need a survey of the DSC XS and the gauge…also the discharge XS is about to change so we should get a survey of the original location and gauge before anything gets moved, maybe I can do this during the SI intermin deployment?</t>
+  </si>
+  <si>
+    <t>working on this one now - use Keli and Nora data…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +201,13 @@
       <name val="Lucida Console"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -216,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -233,11 +246,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,7 +555,7 @@
     <col min="3" max="3" width="35.140625" customWidth="1"/>
     <col min="4" max="4" width="98.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="95.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -549,11 +574,11 @@
       <c r="E1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -566,8 +591,9 @@
       <c r="E2" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -580,8 +606,9 @@
       <c r="E3" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -594,11 +621,12 @@
       <c r="D4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -614,9 +642,9 @@
       <c r="E5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -629,8 +657,9 @@
       <c r="E6" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -644,8 +673,9 @@
       <c r="E7" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -659,8 +689,9 @@
       <c r="E8" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -674,8 +705,9 @@
       <c r="E9" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -689,8 +721,9 @@
       <c r="E10" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -704,8 +737,9 @@
       <c r="E11" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -721,11 +755,11 @@
       <c r="E12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
@@ -738,14 +772,14 @@
       <c r="D13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
@@ -761,8 +795,9 @@
       <c r="E14" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
@@ -774,24 +809,27 @@
       <c r="E15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="7" t="s">
+      <c r="D16" s="11"/>
+      <c r="E16" s="12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -802,8 +840,11 @@
       <c r="D17" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -815,7 +856,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -823,14 +864,15 @@
       <c r="C19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
@@ -842,8 +884,9 @@
       <c r="E20" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -854,7 +897,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -865,7 +908,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -873,10 +916,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D25" s="3"/>
     </row>
   </sheetData>

--- a/hydrologicControls/Geomorphology_Survey_List_20190310.xlsx
+++ b/hydrologicControls/Geomorphology_Survey_List_20190310.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -209,12 +209,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -229,11 +235,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -263,6 +266,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,372 +565,376 @@
     <col min="3" max="3" width="35.140625" customWidth="1"/>
     <col min="4" max="4" width="98.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="95.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="95.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="E2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="E4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="E5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="B10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="B11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="E12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="B13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="E14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="5" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12" t="s">
+      <c r="D16" s="10"/>
+      <c r="E16" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="E19" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4" t="s">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="D20" s="13"/>
+      <c r="E20" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="13" t="s">
         <v>34</v>
       </c>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D24" s="3"/>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D25" s="3"/>
+      <c r="D25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hydrologicControls/Geomorphology_Survey_List_20190310.xlsx
+++ b/hydrologicControls/Geomorphology_Survey_List_20190310.xlsx
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
   <si>
     <t>Site</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>HOPB</t>
   </si>
   <si>
@@ -92,27 +89,18 @@
     <t>WLOU</t>
   </si>
   <si>
-    <t>new survey data available</t>
-  </si>
-  <si>
     <t>WY</t>
   </si>
   <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>Ready for control delineation.</t>
-  </si>
-  <si>
     <t>WY19 and earlier</t>
   </si>
   <si>
     <t xml:space="preserve">Used temporary gauge height - check to see if Named Location offset is in place.  </t>
   </si>
   <si>
-    <t>Needs update</t>
-  </si>
-  <si>
     <t>two XS survey and multiple gauges surved - send Laura a note</t>
   </si>
   <si>
@@ -167,7 +155,31 @@
     <t>We don't have a shot on the staff gauge for this site yet…we need a survey of the DSC XS and the gauge…also the discharge XS is about to change so we should get a survey of the original location and gauge before anything gets moved, maybe I can do this during the SI intermin deployment?</t>
   </si>
   <si>
-    <t>working on this one now - use Keli and Nora data…</t>
+    <t>OK - need to use .csv file contained in N:\Special\AIS Survey Work\D06_MCDI\MCDI_AIS_Repair_Survey_20181128\Raw_Survey_Data</t>
+  </si>
+  <si>
+    <t>OK - need to use .csv contained in N:\Special\AIS Survey Work\D18_OKSR\OKSR_20180831_AIS_Survey\Raw_Survey_Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to figure out which gauge is which and create 2 control scripts.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WY18 - probably not earlier </t>
+  </si>
+  <si>
+    <t>The 2017 geomorphology survey data contains the discharge XS but no staff gauge shot (no gauge installed).  The 2018 geomorphology survey data contains a survey of the same discharge XS and a staff gauge shot.  The cross-section changed dramatically in 2018 following the hurricane.   Do we have AIS survey data that contains the offset between the original and new staff gauge?</t>
+  </si>
+  <si>
+    <t>WY17 and earlier</t>
+  </si>
+  <si>
+    <t>WY18 and beyond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017 geomorph data contains a DSC transect and a staff gauge shot </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018 geomorph data has old and new DSC surveys and one staff gauge shot - the staff gauge shot relates only to the new DSC XS.   Created a control file for both old and new DSC XS's.   For the old DSC XS I put in the elevation of the gauge shot in 2017, the thalweg is at about the 0.5 meter mark.  Will run a script that plots the 2017 and 2018 original DSC XS and see if we see that much aggradation in the channel.  </t>
   </si>
 </sst>
 </file>
@@ -553,388 +565,345 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" customWidth="1"/>
-    <col min="4" max="4" width="98.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="95.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="98.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="95.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="E16" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="17" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B21" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="E21" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="B22" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="E23" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="13"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D25" s="2"/>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hydrologicControls/Geomorphology_Survey_List_20190310.xlsx
+++ b/hydrologicControls/Geomorphology_Survey_List_20190310.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Site_Controls " sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="65">
   <si>
     <t>Site</t>
   </si>
@@ -113,12 +114,6 @@
     <t>the 2017 survey data may have 2.00m as the staff gauge  shot, should be 0.2?  Check 2018 AIS data…</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>some sites have had the discharge XS re-surveyed during the re-design effort - Nick to look into this (BLUE?)</t>
-  </si>
-  <si>
     <t>LFS</t>
   </si>
   <si>
@@ -179,14 +174,59 @@
     <t xml:space="preserve">2017 geomorph data contains a DSC transect and a staff gauge shot </t>
   </si>
   <si>
-    <t xml:space="preserve">2018 geomorph data has old and new DSC surveys and one staff gauge shot - the staff gauge shot relates only to the new DSC XS.   Created a control file for both old and new DSC XS's.   For the old DSC XS I put in the elevation of the gauge shot in 2017, the thalweg is at about the 0.5 meter mark.  Will run a script that plots the 2017 and 2018 original DSC XS and see if we see that much aggradation in the channel.  </t>
+    <t xml:space="preserve">2018 geomorph data has old and new DSC surveys and one staff gauge shot - the staff gauge shot relates only to the new DSC XS.   Created a control file for both old and new DSC XS's.   For the old DSC XS I put in the elevation of the gauge shot in 2017, the thalweg is at about the 0.5 meter mark. Ran plots of the 2017 and 2018 original DSC XS and aggradation was about .6 meters so this seems to make sense.  So, for the original XS we should use the 2017 profile for 2017 data and earlier and if there are any measurements associated with the XS beyond the 2018 survey date use the 2018 profile for that rating.   </t>
+  </si>
+  <si>
+    <t>BLUE</t>
+  </si>
+  <si>
+    <t>WY19 and beyond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New discharge location near the bridge.  This XS should correspond to all measurements collected at the new XS.  No survey data available for the previous discharge XS - will need to just rely on post model.  </t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>FLNT</t>
+  </si>
+  <si>
+    <t>LECO</t>
+  </si>
+  <si>
+    <t>BLWA</t>
+  </si>
+  <si>
+    <t>TOMB</t>
+  </si>
+  <si>
+    <t>MCRA</t>
+  </si>
+  <si>
+    <t>BIGC</t>
+  </si>
+  <si>
+    <t>TECR</t>
+  </si>
+  <si>
+    <t>SurveyDate1</t>
+  </si>
+  <si>
+    <t>SurveyDate2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Original DSC and staff gauge location at S1; missing staff gauge in 2018 resulting in mutiple Q measurements with no corresponding gauge height; new DSC transect and staff gauge established at S2 in April 2019 (no survey data available for this location yet); </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +260,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -247,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -285,6 +331,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,10 +645,10 @@
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -604,7 +659,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E2" s="4"/>
     </row>
@@ -616,7 +671,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -631,7 +686,7 @@
         <v>26</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -646,7 +701,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E5" s="8"/>
     </row>
@@ -658,7 +713,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -671,7 +726,7 @@
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E7" s="4"/>
     </row>
@@ -684,7 +739,7 @@
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" s="4"/>
     </row>
@@ -697,7 +752,7 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -710,7 +765,7 @@
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E10" s="4"/>
     </row>
@@ -723,7 +778,7 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" s="4"/>
     </row>
@@ -738,10 +793,10 @@
         <v>28</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -755,10 +810,10 @@
         <v>25</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -772,7 +827,7 @@
         <v>24</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E14" s="4"/>
     </row>
@@ -783,10 +838,10 @@
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -796,10 +851,10 @@
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -808,10 +863,10 @@
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -820,10 +875,10 @@
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -832,13 +887,13 @@
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -848,7 +903,7 @@
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E20" s="4"/>
     </row>
@@ -857,11 +912,11 @@
         <v>4</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C21" s="13"/>
       <c r="E21" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -869,13 +924,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -883,21 +938,24 @@
         <v>5</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C23" s="13"/>
       <c r="E23" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="13"/>
+        <v>50</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="E24" s="13" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C25" s="2"/>
@@ -909,4 +967,376 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17">
+        <v>42999</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>4</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>4</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>6</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>6</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>7</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>7</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>8</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>8</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>8</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>10</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>11</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>11</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>12</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>13</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>13</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>14</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>15</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>16</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <v>16</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
+        <v>17</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
+        <v>17</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
+        <v>18</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
+        <v>19</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/hydrologicControls/Geomorphology_Survey_List_20190310.xlsx
+++ b/hydrologicControls/Geomorphology_Survey_List_20190310.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="66">
   <si>
     <t>Site</t>
   </si>
@@ -156,36 +156,18 @@
     <t>OK - need to use .csv contained in N:\Special\AIS Survey Work\D18_OKSR\OKSR_20180831_AIS_Survey\Raw_Survey_Data</t>
   </si>
   <si>
-    <t xml:space="preserve">Need to figure out which gauge is which and create 2 control scripts.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WY18 - probably not earlier </t>
-  </si>
-  <si>
-    <t>The 2017 geomorphology survey data contains the discharge XS but no staff gauge shot (no gauge installed).  The 2018 geomorphology survey data contains a survey of the same discharge XS and a staff gauge shot.  The cross-section changed dramatically in 2018 following the hurricane.   Do we have AIS survey data that contains the offset between the original and new staff gauge?</t>
-  </si>
-  <si>
     <t>WY17 and earlier</t>
   </si>
   <si>
     <t>WY18 and beyond</t>
   </si>
   <si>
-    <t xml:space="preserve">2017 geomorph data contains a DSC transect and a staff gauge shot </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018 geomorph data has old and new DSC surveys and one staff gauge shot - the staff gauge shot relates only to the new DSC XS.   Created a control file for both old and new DSC XS's.   For the old DSC XS I put in the elevation of the gauge shot in 2017, the thalweg is at about the 0.5 meter mark. Ran plots of the 2017 and 2018 original DSC XS and aggradation was about .6 meters so this seems to make sense.  So, for the original XS we should use the 2017 profile for 2017 data and earlier and if there are any measurements associated with the XS beyond the 2018 survey date use the 2018 profile for that rating.   </t>
-  </si>
-  <si>
     <t>BLUE</t>
   </si>
   <si>
     <t>WY19 and beyond</t>
   </si>
   <si>
-    <t xml:space="preserve">New discharge location near the bridge.  This XS should correspond to all measurements collected at the new XS.  No survey data available for the previous discharge XS - will need to just rely on post model.  </t>
-  </si>
-  <si>
     <t>Domain</t>
   </si>
   <si>
@@ -220,6 +202,27 @@
   </si>
   <si>
     <t xml:space="preserve">Original DSC and staff gauge location at S1; missing staff gauge in 2018 resulting in mutiple Q measurements with no corresponding gauge height; new DSC transect and staff gauge established at S2 in April 2019 (no survey data available for this location yet); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK - Only one staff gauge was ever installed at SYCA - Rachel says both shots of the same gauge taken on different days.    The gauge is known to be quite a ways  from the discharge XS.   The stage-discharge record and the cross-section do not match up well - they have collected Q at gauge heights of 0.22, the XS data suggests that the Q XS begins to receive water at GH=0.63m, so we should really up the uncertainity on this one.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK- 2018 geomorph data has old and new DSC surveys and one staff gauge shot - the staff gauge shot relates only to the new DSC XS.   Created a control file for both old and new DSC XS's.   For the old DSC XS I put in the elevation of the gauge shot in 2017, the thalweg is at about the 0.5 meter mark. Ran plots of the 2017 and 2018 original DSC XS and aggradation was about .6 meters so this seems to make sense.  So, for the original XS we should use the 2017 profile for 2017 data and earlier and if there are any measurements associated with the XS beyond the 2018 survey date use the 2018 profile for that rating.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK - New discharge location near the bridge.  This XS should correspond to all measurements collected at the new XS.  No survey data available for the previous discharge XS - will need to just rely on post model.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK - 2017 geomorph data contains a DSC transect and a staff gauge shot </t>
+  </si>
+  <si>
+    <t>WY18 -and beyond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 2017 geomorphology survey data contains the discharge XS but no staff gauge shot (no gauge installed). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  The 2018 geomorphology survey data contains a survey of the same discharge XS as 2017 and a staff gauge shot.  The cross-section changed dramatically in 2018 following the hurricane.   No survey data available to compare the staff gauges - maybe Maria has water level data?</t>
   </si>
 </sst>
 </file>
@@ -620,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,19 +884,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="14" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>43</v>
+      <c r="D19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -912,56 +915,68 @@
         <v>4</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C21" s="13"/>
       <c r="E21" s="13" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="E22" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="13" t="s">
+      <c r="B23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="E23" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="E23" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="E24" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="2"/>
+      <c r="C25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -973,7 +988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
@@ -984,19 +999,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1011,7 +1026,7 @@
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1041,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -1107,7 +1122,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -1118,7 +1133,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -1129,7 +1144,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -1173,7 +1188,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -1250,7 +1265,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -1261,7 +1276,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -1272,7 +1287,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
